--- a/docs/peer assessment v1.3.xlsx
+++ b/docs/peer assessment v1.3.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sietse\OneDrive\Radius College\Onderwijsontwikkeling\Scrum\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Raoul\Documents\GitHub\DuckFunt\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Houdt zich aan gemaakte afspraken</t>
   </si>
@@ -124,13 +124,28 @@
     <t>Naam(vul hieronder de namen van de groepsleden in. Houd dezelfde volgorde aan als je teamgenoten)</t>
   </si>
   <si>
-    <t>Sietse</t>
-  </si>
-  <si>
-    <t>Fedde</t>
-  </si>
-  <si>
-    <t>Fer</t>
+    <t>Santino</t>
+  </si>
+  <si>
+    <t>Dimitri</t>
+  </si>
+  <si>
+    <t>Kevin</t>
+  </si>
+  <si>
+    <t>Floris</t>
+  </si>
+  <si>
+    <t>Anthony</t>
+  </si>
+  <si>
+    <t>Tom</t>
+  </si>
+  <si>
+    <t>Raoul</t>
+  </si>
+  <si>
+    <t>Henk</t>
   </si>
 </sst>
 </file>
@@ -282,10 +297,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -665,35 +680,35 @@
   </sheetPr>
   <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.86328125" customWidth="1"/>
-    <col min="3" max="3" width="15.73046875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.59765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.86328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="10" width="13.86328125" customWidth="1"/>
-    <col min="11" max="11" width="11.86328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.85546875" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="10" width="13.85546875" customWidth="1"/>
+    <col min="11" max="11" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C1" s="10" t="s">
+    <row r="1" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C1" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C2" s="3" t="s">
         <v>21</v>
       </c>
@@ -703,14 +718,24 @@
       <c r="E2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
+      <c r="F2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="K2" s="3"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="2" t="s">
         <v>10</v>
@@ -729,10 +754,10 @@
       </c>
       <c r="M3" s="3">
         <f>COUNTA(C2:K2)*7-1</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -753,7 +778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -774,7 +799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -795,7 +820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -816,7 +841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -837,7 +862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -858,7 +883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -879,7 +904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -900,7 +925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -921,7 +946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -942,7 +967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="2" t="s">
         <v>11</v>
@@ -958,7 +983,7 @@
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>11</v>
       </c>
@@ -979,7 +1004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>12</v>
       </c>
@@ -1000,7 +1025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="2" t="s">
         <v>12</v>
@@ -1016,7 +1041,7 @@
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
     </row>
-    <row r="18" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>13</v>
       </c>
@@ -1037,7 +1062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="4" t="s">
         <v>16</v>
@@ -1120,13 +1145,13 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.59765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="120.73046875" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="120.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>

--- a/docs/peer assessment v1.3.xlsx
+++ b/docs/peer assessment v1.3.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Raoul\Documents\GitHub\DuckFunt\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alienware\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Houdt zich aan gemaakte afspraken</t>
   </si>
@@ -124,19 +124,19 @@
     <t>Naam(vul hieronder de namen van de groepsleden in. Houd dezelfde volgorde aan als je teamgenoten)</t>
   </si>
   <si>
+    <t>Dimitri</t>
+  </si>
+  <si>
     <t>Santino</t>
   </si>
   <si>
-    <t>Dimitri</t>
-  </si>
-  <si>
     <t>Kevin</t>
   </si>
   <si>
     <t>Floris</t>
   </si>
   <si>
-    <t>Anthony</t>
+    <t>Anthonie</t>
   </si>
   <si>
     <t>Tom</t>
@@ -146,13 +146,16 @@
   </si>
   <si>
     <t>Henk</t>
+  </si>
+  <si>
+    <t>Duck Funt</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -204,6 +207,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="26"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -277,7 +288,7 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -302,11 +313,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Goed" xfId="1" builtinId="26"/>
-    <cellStyle name="Neutraal" xfId="2" builtinId="28"/>
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="9">
     <dxf>
@@ -680,8 +692,8 @@
   </sheetPr>
   <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -695,7 +707,10 @@
     <col min="11" max="11" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B1" s="12" t="s">
+        <v>29</v>
+      </c>
       <c r="C1" s="11" t="s">
         <v>20</v>
       </c>
@@ -710,10 +725,10 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>22</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>23</v>
